--- a/data/gene_lists/summary.xlsx
+++ b/data/gene_lists/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\GitHub\SingleCellScripts\data\gene_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xfilst/Documents/GitHub/SingleCellScripts/data/gene_lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA78B65E-BAC6-4543-A16D-A7254E613B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB53EC-5D31-9648-A024-2041BDC0F49D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7DAC2C1-DA4B-4449-9A00-5DEB9029C011}"/>
+    <workbookView xWindow="40380" yWindow="-5000" windowWidth="27040" windowHeight="19540" xr2:uid="{E7DAC2C1-DA4B-4449-9A00-5DEB9029C011}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>MME</t>
   </si>
@@ -96,13 +94,390 @@
   </si>
   <si>
     <t xml:space="preserve"> Membrane Metallo-Endopeptidase (MME/Neprislyin) is an extracellular, membrane-bound protease enriched in subcutaneous WAT that can target degradation of a variety of peptides, including insulin, IL6, and β-amyloids. We hypothesized that MME contributes to adipose depot-specific metabolic properties.</t>
+  </si>
+  <si>
+    <t>CD274</t>
+  </si>
+  <si>
+    <t>IL11</t>
+  </si>
+  <si>
+    <t>adipogenesis inhibitory factor (AGIF); IL-11 is a member of the IL-6-type cytokine family</t>
+  </si>
+  <si>
+    <t>IL23R</t>
+  </si>
+  <si>
+    <t>IL-23 heterodimer binds the receptor complex - p19 subunit binds IL-23R while p40 subunit binds IL-12RB1 which leads to recruitment of Janus kinase 2 and Tyrosine kinase 2 kinases. Janus kinase 2 and Tyrosine kinase 2 transduce the signal and phosphorylate STAT3 and STAT4.</t>
+  </si>
+  <si>
+    <t>Adipokine</t>
+  </si>
+  <si>
+    <t>SMARCE1</t>
+  </si>
+  <si>
+    <t>PRMT2</t>
+  </si>
+  <si>
+    <t>Protein arginine N-methyltransferase 2</t>
+  </si>
+  <si>
+    <t>PRC1</t>
+  </si>
+  <si>
+    <t>Polycomb repressive complex 1 (PRC1) is one of the two classes of Polycomb Repressive complexes, the other being PRC2. Polycomb-group proteins play a major role in transcriptional regulation during development. Polycomb Repressive Complexes PRC1 and PRC2 function in the silencing of expression of the Hox gene network involved in development as well as the inactive X chromosome.[1] PRC1 inhibits the activated form of RNA polymerase II preinitiation complex with the use of H3K27me. PRC1 binds to three nucleosomes, this is believed to limit access of chromatin to transcription factors and therefore limit gene expression.</t>
+  </si>
+  <si>
+    <t>CBX5</t>
+  </si>
+  <si>
+    <r>
+      <t>heterochromatin protein 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>HP1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) ("Chromobox Homolog", CBX) consists of highly conserved </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>proteins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, which have important functions in the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cell nucleus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. These functions include </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>gene repression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>heterochromatin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> formation, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0B0080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>transcriptional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> activation</t>
+    </r>
+  </si>
+  <si>
+    <t>HIST1H4C</t>
+  </si>
+  <si>
+    <t>HIST1H2AC</t>
+  </si>
+  <si>
+    <t>SWI/SNF-related matrix-associated actin-dependent regulator of chromatin subfamily E member 1; BAF-57</t>
+  </si>
+  <si>
+    <t>PD-L1; expressed in 10% of dedifferentiated liposarcomas</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0222551</t>
+  </si>
+  <si>
+    <t>CAPN1</t>
+  </si>
+  <si>
+    <t>CAPN2</t>
+  </si>
+  <si>
+    <t>CAPN2 has been shown to interact with Bcl-2.</t>
+  </si>
+  <si>
+    <t>https://www.embopress.org/doi/full/10.15252/embr.201845766#</t>
+  </si>
+  <si>
+    <t>KMT2E</t>
+  </si>
+  <si>
+    <t>Lysine methyltransferase 2E;This gene is a member of the myeloid/lymphoid or mixed-lineage leukemia (MLL) family and encodes a protein with an N-terminal PHD zinc finger and a central SET domain. Overexpression of the protein inhibits cell cycle progression.</t>
+  </si>
+  <si>
+    <t>MDM2</t>
+  </si>
+  <si>
+    <t>Most of the MDM2-controlled genes also responded to the inactivation of the Polycomb Repressor Complex 2 (PRC2) and its catalytic component EZH2. MDM2 physically associated with EZH2 on chromatin, enhancing the trimethylation of histone 3 at lysine 27 (H3K27)and the ubiquitination of histone 2A at lysine 119 (H2AK119) at its target genes.</t>
+  </si>
+  <si>
+    <t>INO80C</t>
+  </si>
+  <si>
+    <t>Proposed core component of the chromatin remodeling INO80 complex which is involved in transcriptional regulation, DNA replication and probably DNA repair.</t>
+  </si>
+  <si>
+    <t>CHD4</t>
+  </si>
+  <si>
+    <t>CHD4 has been shown to interact with HDAC1,[8][9][10] Histone deacetylase 2,[10][11][12] MTA2,[8] SATB1[13] and Ataxia telangiectasia and Rad3 related.[12]</t>
+  </si>
+  <si>
+    <t>MTA1</t>
+  </si>
+  <si>
+    <t>MBD2</t>
+  </si>
+  <si>
+    <t>see MTA1; part of the NuRD (Nucleosome Remodeling Deacetylase) complex</t>
+  </si>
+  <si>
+    <r>
+      <t>The NuRD complex contains seven subunits: the histone deacetylase core proteins HDAC1 and HDAC2, the histone-binding proteins RbAp46 and RbAp48, the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> metastasis-associated proteins MTA1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or MTA2 / MTA3), the methyl-CpG-binding domain protein MBD3 (or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MBD2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) and the chromodomain-helicase-DNA-binding protein CHD3 (aka Mi-2alpha) or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CHD4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (aka Mi-2beta).</t>
+    </r>
+  </si>
+  <si>
+    <t>SMARCA5</t>
+  </si>
+  <si>
+    <t>SMARCD1</t>
+  </si>
+  <si>
+    <t>ACTL6A</t>
+  </si>
+  <si>
+    <t>JARID2</t>
+  </si>
+  <si>
+    <t>SWI-SNF components: In vitro studies of Jarid2 reveal that ARID along with other functional domains are involved in DNA binding, nuclear localization, transcriptional repression,[11] and recruitment of Polycomb-repressive complex 2 (PRC2)</t>
+  </si>
+  <si>
+    <t>INO80E</t>
+  </si>
+  <si>
+    <t>CHD3</t>
+  </si>
+  <si>
+    <t>CHD9</t>
+  </si>
+  <si>
+    <t>CHD1</t>
+  </si>
+  <si>
+    <t>Chromodomain helicase DNA-binding (CHD) proteins are a subfamily of ATP-dependent Chromatin remodeling complexes (remodelers). All remodelers fall under the umbrella of RNA/DNA helicase superfamily 2. In yeast, CHD complexes are primarily responsible for nucleosome assembly and organization. These complexes play an additional role in multicellular eukaryotes, assisting in chromatin access and nucleosome editing.</t>
+  </si>
+  <si>
+    <t>CBX1</t>
+  </si>
+  <si>
+    <t>MBD4</t>
+  </si>
+  <si>
+    <t>part of the NuRD complex</t>
+  </si>
+  <si>
+    <t>methyl-CpG-binding domain</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>AKT1</t>
+  </si>
+  <si>
+    <t>PTEN</t>
+  </si>
+  <si>
+    <t>ADIPOR1</t>
+  </si>
+  <si>
+    <t>Adiponectin receptor 1 (AdipoR1) is a protein which in humans is encoded by the ADIPOR1 gene.[5] It is a member of the progestin and adipoQ receptor (PAQR) family, and is also known as PAQR1.[6]</t>
+  </si>
+  <si>
+    <t>LEPROTL1</t>
+  </si>
+  <si>
+    <t>Leptin receptor overlapping transcript-like 1</t>
+  </si>
+  <si>
+    <t>CCL2</t>
+  </si>
+  <si>
+    <t>adipokine; monocyte chemotactic protein-1 (MCP-1)</t>
+  </si>
+  <si>
+    <t>SERPINE1</t>
+  </si>
+  <si>
+    <t>adipokine</t>
+  </si>
+  <si>
+    <t>ABCA1</t>
+  </si>
+  <si>
+    <t>Adiponectin induces ABCA1-mediated reverse cholesterol transport by activation of PPAR-γ and LXRα/β.</t>
+  </si>
+  <si>
+    <t>RB1</t>
+  </si>
+  <si>
+    <t>EDF1</t>
+  </si>
+  <si>
+    <t>DNMT1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +495,39 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3E3F3A"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -265,10 +673,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,7 +703,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,23 +999,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE17C90-2A5B-4430-80DD-3F860AA11071}">
-  <dimension ref="C4:J16"/>
+  <dimension ref="B4:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="97.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="97.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -616,7 +1038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:10" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
@@ -642,7 +1064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
@@ -663,7 +1085,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
@@ -682,9 +1104,11 @@
       <c r="H9" s="9">
         <v>1.3174661065022499E-168</v>
       </c>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
@@ -703,9 +1127,11 @@
       <c r="H10" s="9">
         <v>1.06175444967158E-56</v>
       </c>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -726,7 +1152,7 @@
       </c>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
@@ -747,7 +1173,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
@@ -768,7 +1194,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
@@ -794,7 +1220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
@@ -816,7 +1242,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="s">
         <v>16</v>
       </c>
@@ -837,11 +1263,1231 @@
       </c>
       <c r="I16" s="23"/>
     </row>
+    <row r="17" spans="3:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="26">
+        <v>4.6233400797937001E-70</v>
+      </c>
+      <c r="E17" s="25">
+        <v>-0.13760436778423801</v>
+      </c>
+      <c r="F17" s="25">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="H17" s="26">
+        <v>8.30721745537333E-66</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="26">
+        <v>8.33455578169708E-48</v>
+      </c>
+      <c r="E18" s="25">
+        <v>-0.20324401961214</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1.4975529828553301E-43</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="C19" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="26">
+        <v>6.7456957590568402E-148</v>
+      </c>
+      <c r="E19" s="25">
+        <v>-0.152298477772116</v>
+      </c>
+      <c r="F19" s="25">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1.2120666139873301E-143</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="26">
+        <v>2.8112255944702101E-19</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.12864926914385799</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0.872</v>
+      </c>
+      <c r="H20" s="26">
+        <v>5.0512101481440701E-15</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="26">
+        <v>5.9747771286670199E-56</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.25120730497771698</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0.876</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="H21" s="26">
+        <v>1.07354795447889E-51</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="96" x14ac:dyDescent="0.2">
+      <c r="C22" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="26">
+        <v>7.0708203682885703E-7</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.122770761507747</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.309</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H22" s="25">
+        <v>1.2704850037740901E-2</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="C23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1.85639490827163E-16</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.15394284015330201</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="H23" s="26">
+        <v>3.33557037118246E-12</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="26">
+        <v>2.0584687818998001E-47</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.72467413125373104</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="H24" s="26">
+        <v>3.69865670731755E-43</v>
+      </c>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="3:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C25" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="26">
+        <v>6.6932858373165305E-32</v>
+      </c>
+      <c r="E25" s="25">
+        <v>-0.134991633240614</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H25" s="26">
+        <v>1.20264959924903E-27</v>
+      </c>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="3:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C26" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1.9192144936103301E-29</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0.20334728649450501</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="H26" s="26">
+        <v>3.4484446021190298E-25</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C27" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="26">
+        <v>5.0429841116647404E-19</v>
+      </c>
+      <c r="E27" s="25">
+        <v>-0.106531720024223</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="H27" s="26">
+        <v>9.0612338518392103E-15</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="3:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="C28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="26">
+        <v>6.6368812549631602E-14</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.11959055968769</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0.83</v>
+      </c>
+      <c r="H28" s="26">
+        <v>1.19251482389178E-9</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="C29" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1.9992010221250401E-32</v>
+      </c>
+      <c r="E29" s="25">
+        <v>-0.116864131495127</v>
+      </c>
+      <c r="F29" s="25">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="G29" s="25">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H29" s="26">
+        <v>3.5921643965542601E-28</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="C30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="26">
+        <v>5.4190968009311898E-8</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.15395195664275799</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="H30" s="25">
+        <v>9.7370331319131601E-4</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="C31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="26">
+        <v>2.5202084288344399E-20</v>
+      </c>
+      <c r="E31" s="25">
+        <v>-0.118929593160452</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="G31" s="25">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="H31" s="26">
+        <v>4.5283105049297201E-16</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="C32" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="26">
+        <v>2.03141903534405E-13</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0.115749506228338</v>
+      </c>
+      <c r="F32" s="25">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="G32" s="25">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H32" s="26">
+        <v>3.6500537227061899E-9</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="26">
+        <v>4.7292414570670501E-45</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0.19831829170274101</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="G33" s="25">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="H33" s="26">
+        <v>8.4975010500580799E-41</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="26">
+        <v>1.39588290304893E-195</v>
+      </c>
+      <c r="E34" s="25">
+        <v>-0.755818195455082</v>
+      </c>
+      <c r="F34" s="25">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G34" s="25">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H34" s="26">
+        <v>2.50812240019833E-191</v>
+      </c>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="25">
+        <v>1145</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="26">
+        <v>2.81840687028056E-27</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0.15223138261660801</v>
+      </c>
+      <c r="F35" s="25">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="H35" s="26">
+        <v>5.0641134645201001E-23</v>
+      </c>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="25">
+        <v>1085</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="26">
+        <v>4.1886723458861602E-29</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0.17449809556413101</v>
+      </c>
+      <c r="F36" s="25">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G36" s="25">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H36" s="26">
+        <v>7.5262064710882503E-25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C50" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="26">
+        <v>4.5100609422630203E-30</v>
+      </c>
+      <c r="E50" s="25">
+        <v>0.21539547545822099</v>
+      </c>
+      <c r="F50" s="25">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="G50" s="25">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H50" s="26">
+        <v>8.10367750105819E-26</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C51" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="26">
+        <v>7.5827148309905004E-21</v>
+      </c>
+      <c r="E51" s="25">
+        <v>0.18146224452666199</v>
+      </c>
+      <c r="F51" s="25">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="G51" s="25">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H51" s="26">
+        <v>1.3624622008323699E-16</v>
+      </c>
+      <c r="I51" s="28"/>
+    </row>
+    <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C52" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="26">
+        <v>1.3879310999749899E-9</v>
+      </c>
+      <c r="E52" s="25">
+        <v>0.105657887804114</v>
+      </c>
+      <c r="F52" s="25">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G52" s="25">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H52" s="25">
+        <v>2.4938346004350599E-5</v>
+      </c>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C53" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="26">
+        <v>1.0102025969820099E-14</v>
+      </c>
+      <c r="E53" s="25">
+        <v>0.170003497038067</v>
+      </c>
+      <c r="F53" s="25">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="G53" s="25">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="H53" s="26">
+        <v>1.8151320262572701E-10</v>
+      </c>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C54" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="26">
+        <v>2.4928296507041202E-44</v>
+      </c>
+      <c r="E54" s="25">
+        <v>-0.15670970318454799</v>
+      </c>
+      <c r="F54" s="25">
+        <v>0.224</v>
+      </c>
+      <c r="G54" s="25">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H54" s="26">
+        <v>4.4791163163851601E-40</v>
+      </c>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C55" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="26">
+        <v>3.1107354809973898E-82</v>
+      </c>
+      <c r="E55" s="25">
+        <v>-0.27970607012971799</v>
+      </c>
+      <c r="F55" s="25">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G55" s="25">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H55" s="26">
+        <v>5.5893695122561103E-78</v>
+      </c>
+      <c r="I55" s="28"/>
+    </row>
+    <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C56" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="26">
+        <v>5.2006848273828102E-54</v>
+      </c>
+      <c r="E56" s="25">
+        <v>0.37030066079815199</v>
+      </c>
+      <c r="F56" s="25">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G56" s="25">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="H56" s="26">
+        <v>9.3445904978414292E-50</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="26">
+        <v>5.6196944141314701E-27</v>
+      </c>
+      <c r="E57" s="25">
+        <v>0.29994960220286598</v>
+      </c>
+      <c r="F57" s="25">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G57" s="25">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H57" s="26">
+        <v>1.0097466923311401E-22</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="26">
+        <v>5.2349368095921802E-8</v>
+      </c>
+      <c r="E58" s="25">
+        <v>0.115385470374503</v>
+      </c>
+      <c r="F58" s="25">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G58" s="25">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H58" s="25">
+        <v>9.4061344594752302E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C59" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="26">
+        <v>3.2949805299716298E-23</v>
+      </c>
+      <c r="E59" s="25">
+        <v>0.19193954904647301</v>
+      </c>
+      <c r="F59" s="25">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G59" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="H59" s="26">
+        <v>5.9204210162530301E-19</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C60" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="26">
+        <v>3.4524251124358201E-21</v>
+      </c>
+      <c r="E60" s="25">
+        <v>0.16839574576529601</v>
+      </c>
+      <c r="F60" s="25">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G60" s="25">
+        <v>0.622</v>
+      </c>
+      <c r="H60" s="26">
+        <v>6.2033174420246796E-17</v>
+      </c>
+      <c r="I60" s="29"/>
+    </row>
+    <row r="61" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C61" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="26">
+        <v>6.3552037081297398E-10</v>
+      </c>
+      <c r="E61" s="25">
+        <v>0.118141077282209</v>
+      </c>
+      <c r="F61" s="25">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="G61" s="25">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="H61" s="25">
+        <v>1.1419030022767499E-5</v>
+      </c>
+      <c r="I61" s="29"/>
+    </row>
+    <row r="62" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C62" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="25">
+        <v>3.1702404650033102E-5</v>
+      </c>
+      <c r="E62" s="25">
+        <v>0.111439813663871</v>
+      </c>
+      <c r="F62" s="25">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G62" s="25">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H62" s="25">
+        <v>0.56962880675179395</v>
+      </c>
+      <c r="I62" s="29"/>
+    </row>
+    <row r="63" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C63" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" s="26">
+        <v>4.4821501299035E-51</v>
+      </c>
+      <c r="E63" s="25">
+        <v>0.31323811289231501</v>
+      </c>
+      <c r="F63" s="25">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G63" s="25">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H63" s="26">
+        <v>8.05352735341062E-47</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B64" s="25">
+        <v>192</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="26">
+        <v>8.3234816703651696E-106</v>
+      </c>
+      <c r="E64" s="25">
+        <v>0.44194017876878799</v>
+      </c>
+      <c r="F64" s="25">
+        <v>0.877</v>
+      </c>
+      <c r="G64" s="25">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="H64" s="26">
+        <v>1.4955631865312101E-101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B65" s="25">
+        <v>455</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="26">
+        <v>2.3088813700342199E-68</v>
+      </c>
+      <c r="E65" s="25">
+        <v>0.33905545788649899</v>
+      </c>
+      <c r="F65" s="25">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G65" s="25">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="H65" s="26">
+        <v>4.1485980456774801E-64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B66" s="25">
+        <v>1647</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="26">
+        <v>2.02612066300712E-16</v>
+      </c>
+      <c r="E66" s="25">
+        <v>0.148103642511561</v>
+      </c>
+      <c r="F66" s="25">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="G66" s="25">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H66" s="26">
+        <v>3.6405336072911998E-12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B67" s="25">
+        <v>2181</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="26">
+        <v>2.6653852531884999E-8</v>
+      </c>
+      <c r="E67" s="25">
+        <v>0.112380147390747</v>
+      </c>
+      <c r="F67" s="25">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="G67" s="25">
+        <v>0.61</v>
+      </c>
+      <c r="H67" s="25">
+        <v>4.7891642229291003E-4</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B68" s="25">
+        <v>262</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="26">
+        <v>3.0989036698875598E-92</v>
+      </c>
+      <c r="E68" s="25">
+        <v>-0.16110001735528801</v>
+      </c>
+      <c r="F68" s="25">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G68" s="25">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="H68" s="26">
+        <v>5.5681101140539698E-88</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B69" s="25">
+        <v>2</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="26">
+        <v>9.0406721597884999E-287</v>
+      </c>
+      <c r="E69" s="25">
+        <v>-1.1722750604973999</v>
+      </c>
+      <c r="F69" s="25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G69" s="25">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H69" s="26">
+        <v>1.6244279736708E-282</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B70" s="25">
+        <v>398</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="26">
+        <v>1.1488005811976E-73</v>
+      </c>
+      <c r="E70" s="25">
+        <v>-0.224285733443502</v>
+      </c>
+      <c r="F70" s="25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G70" s="25">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="H70" s="26">
+        <v>2.0641648842958499E-69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B71" s="25">
+        <v>749</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="26">
+        <v>7.2804182791208897E-45</v>
+      </c>
+      <c r="E71" s="25">
+        <v>-0.28625232591677402</v>
+      </c>
+      <c r="F71" s="25">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G71" s="25">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="H71" s="26">
+        <v>1.3081455563924401E-40</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C72" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" s="26">
+        <v>6.0661314698437504E-195</v>
+      </c>
+      <c r="E72" s="25">
+        <v>0.66910266132047802</v>
+      </c>
+      <c r="F72" s="25">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G72" s="25">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H72" s="26">
+        <v>1.0899625025015299E-190</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B73" s="25">
+        <v>1159</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="26">
+        <v>1.1227038888531099E-28</v>
+      </c>
+      <c r="E73" s="25">
+        <v>0.20229777695352399</v>
+      </c>
+      <c r="F73" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="G73" s="25">
+        <v>0.995</v>
+      </c>
+      <c r="H73" s="26">
+        <v>2.0172743474912599E-24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C74" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="26">
+        <v>3.0369249865324501E-22</v>
+      </c>
+      <c r="E74" s="25">
+        <v>-0.123045609201962</v>
+      </c>
+      <c r="F74" s="25">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G74" s="25">
+        <v>0.871</v>
+      </c>
+      <c r="H74" s="26">
+        <v>5.45674681580151E-18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C75" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="26">
+        <v>2.3617150231195301E-8</v>
+      </c>
+      <c r="E75" s="25">
+        <v>0.113096339145957</v>
+      </c>
+      <c r="F75" s="25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G75" s="25">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H75" s="25">
+        <v>4.2435295535411702E-4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C76" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="26">
+        <v>2.07539603523844E-95</v>
+      </c>
+      <c r="E76" s="25">
+        <v>-0.60768785889805099</v>
+      </c>
+      <c r="F76" s="25">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G76" s="25">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="H76" s="26">
+        <v>3.7290715961164298E-91</v>
+      </c>
+      <c r="I76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B77" s="25">
+        <v>367</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="26">
+        <v>2.98296101090741E-78</v>
+      </c>
+      <c r="E77" s="25">
+        <v>-0.28066362938369799</v>
+      </c>
+      <c r="F77" s="25">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="G77" s="25">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="H77" s="26">
+        <v>5.3597843443984298E-74</v>
+      </c>
+      <c r="I77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C78" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="26">
+        <v>1.39588290304893E-195</v>
+      </c>
+      <c r="E78" s="25">
+        <v>-0.755818195455082</v>
+      </c>
+      <c r="F78" s="25">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G78" s="25">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H78" s="26">
+        <v>2.50812240019833E-191</v>
+      </c>
+      <c r="I78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C79" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="26">
+        <v>6.7963402858343502E-85</v>
+      </c>
+      <c r="E79" s="25">
+        <v>-0.10488604943523799</v>
+      </c>
+      <c r="F79" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G79" s="25">
+        <v>0.313</v>
+      </c>
+      <c r="H79" s="26">
+        <v>1.22116642255872E-80</v>
+      </c>
+      <c r="I79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C80" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="26">
+        <v>3.3382517205561103E-33</v>
+      </c>
+      <c r="E80" s="25">
+        <v>0.214524661840411</v>
+      </c>
+      <c r="F80" s="25">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G80" s="25">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H80" s="26">
+        <v>5.9981706914952196E-29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="C81" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="26">
+        <v>1.54154067008498E-41</v>
+      </c>
+      <c r="E81" s="25">
+        <v>0.204055937520845</v>
+      </c>
+      <c r="F81" s="25">
+        <v>0.996</v>
+      </c>
+      <c r="G81" s="25">
+        <v>0.995</v>
+      </c>
+      <c r="H81" s="26">
+        <v>2.7698402760086898E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B82" s="25">
+        <v>482</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="26">
+        <v>3.7805682754721602E-65</v>
+      </c>
+      <c r="E82" s="25">
+        <v>0.37569873777485102</v>
+      </c>
+      <c r="F82" s="25">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="G82" s="25">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H82" s="26">
+        <v>6.7929250773683697E-61</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="I59:I62"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{5204E196-14C7-4769-BC96-AA6F7F610380}"/>
+    <hyperlink ref="J17" r:id="rId2" xr:uid="{2919537B-05DF-8541-AF18-0819660F2219}"/>
+    <hyperlink ref="J22" r:id="rId3" display="https://www.embopress.org/doi/full/10.15252/embr.201845766" xr:uid="{AABBC214-050E-514A-9A6F-A0F3CF9523F8}"/>
+    <hyperlink ref="I67" r:id="rId4" tooltip="Methyl-CpG-binding domain" display="https://en.wikipedia.org/wiki/Methyl-CpG-binding_domain" xr:uid="{0973F7FE-2F30-834D-ABFA-06611D551B79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>